--- a/אלמנט חכם/PredictionData.xlsx
+++ b/אלמנט חכם/PredictionData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\אלמנט חכם\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09262094-8EA5-41DB-83BF-F492A0FD2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA5B6EA-9211-4EC1-A467-1B8439496CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="12">
   <si>
     <t>B</t>
   </si>
@@ -65,14 +65,17 @@
     <t>totalReqQty</t>
   </si>
   <si>
-    <t>futureUsage</t>
+    <t>futureUsage(Y)</t>
+  </si>
+  <si>
+    <t>&lt;-------&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +228,16 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,8 +417,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -522,6 +545,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -567,11 +644,35 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -927,941 +1028,1623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.796875" style="1"/>
-    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1"/>
+    <col min="11" max="14" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>22</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>17</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>21</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>19</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>24</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="I8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="I9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>25</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>21</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
         <v>25</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>28</v>
       </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>19</v>
       </c>
-      <c r="B12" s="1">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="2">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>25</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>19</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>22</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="I13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>23</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="I15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>17</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>25</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="I17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>25</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>24</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="I19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
         <v>7</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>25</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
         <v>8</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="I21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>11</v>
       </c>
-      <c r="B22" s="1">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="B22" s="9">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="F22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9">
+        <v>18</v>
+      </c>
+      <c r="H22" s="10">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
         <v>11</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>19</v>
       </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
         <v>10</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="H23" s="10">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2">
         <v>25</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>11</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="H24" s="10">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>30</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>25</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>23</v>
       </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
         <v>12</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="H25" s="10">
+        <v>16</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>11</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>17</v>
       </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="H26" s="10">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>14</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>11</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>15</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="H27" s="10">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>17</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>14</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="8">
         <v>25</v>
       </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="D28" s="8">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="H28" s="10">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="7">
         <v>17</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
         <v>10</v>
       </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="H29" s="11">
+        <f>AVERAGE(H22:H28)</f>
+        <v>18</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>15</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="1">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="C30" s="2">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
         <v>5</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="F30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2">
         <v>15</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>19</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
         <v>6</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="I31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>11</v>
       </c>
-      <c r="B32" s="1">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1">
-        <v>18</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="B32" s="2">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>7</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="I32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>23</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>11</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>11</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
         <v>8</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="I33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>24</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>23</v>
       </c>
-      <c r="C34" s="1">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="C34" s="2">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="I34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>21</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>24</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>25</v>
       </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
         <v>10</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
         <v>21</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>30</v>
       </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
         <v>11</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="I36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>28</v>
       </c>
-      <c r="B37" s="1">
-        <v>18</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" s="2">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
         <v>11</v>
       </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
         <v>12</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="I37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>30</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>28</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>14</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>4</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="I38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>15</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>30</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>17</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="I39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>14</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>15</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>23</v>
       </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
         <v>13</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" ref="A42:C42" si="0">MIN(A2:A40)</f>
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <f>MIN(D2:D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" ref="A43:C43" si="1">MAX(A2:A40)</f>
+        <v>30</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D43" s="1">
+        <f>MAX(D2:D40)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/אלמנט חכם/PredictionData.xlsx
+++ b/אלמנט חכם/PredictionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\אלמנט חכם\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA5B6EA-9211-4EC1-A467-1B8439496CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C6DA7-CB55-402A-9578-CC234DF404CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -595,8 +595,38 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -644,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,8 +701,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1028,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1043,11 +1080,11 @@
     <col min="5" max="5" width="9.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.796875" style="1"/>
     <col min="7" max="7" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="1"/>
+    <col min="8" max="9" width="8.796875" style="1"/>
     <col min="11" max="14" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1069,17 +1106,12 @@
       <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="H1" s="11"/>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>5</v>
@@ -1087,8 +1119,14 @@
       <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>20</v>
       </c>
@@ -1110,23 +1148,24 @@
       <c r="G2" s="2">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2"/>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>22</v>
       </c>
@@ -1148,23 +1187,24 @@
       <c r="G3" s="2">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3"/>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>13</v>
       </c>
@@ -1186,23 +1226,24 @@
       <c r="G4" s="2">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
+      <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4"/>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -1224,23 +1265,24 @@
       <c r="G5" s="2">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5"/>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>18</v>
       </c>
@@ -1262,23 +1304,24 @@
       <c r="G6" s="2">
         <v>17</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
+      <c r="K6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>17</v>
       </c>
@@ -1300,23 +1343,24 @@
       <c r="G7" s="2">
         <v>24</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
+      <c r="K7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7"/>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>24</v>
       </c>
@@ -1338,23 +1382,24 @@
       <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
+      <c r="K8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8"/>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -1376,23 +1421,24 @@
       <c r="G9" s="2">
         <v>25</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
+      <c r="K9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9"/>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>25</v>
       </c>
@@ -1414,23 +1460,24 @@
       <c r="G10" s="2">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10"/>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>18</v>
       </c>
@@ -1452,23 +1499,24 @@
       <c r="G11" s="2">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
+      <c r="K11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11"/>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>19</v>
       </c>
@@ -1490,23 +1538,24 @@
       <c r="G12" s="2">
         <v>25</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12"/>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>25</v>
       </c>
@@ -1528,23 +1577,24 @@
       <c r="G13" s="2">
         <v>23</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13"/>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>23</v>
       </c>
@@ -1566,23 +1616,24 @@
       <c r="G14" s="2">
         <v>17</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14"/>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1604,23 +1655,24 @@
       <c r="G15" s="2">
         <v>15</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
+      <c r="K15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15"/>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1642,23 +1694,24 @@
       <c r="G16" s="2">
         <v>25</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
+      <c r="K16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16"/>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>25</v>
       </c>
@@ -1680,23 +1733,24 @@
       <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
+      <c r="K17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17"/>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -1718,23 +1772,24 @@
       <c r="G18" s="2">
         <v>18</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
+      <c r="K18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18"/>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1756,23 +1811,24 @@
       <c r="G19" s="2">
         <v>19</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
+      <c r="K19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19"/>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1794,102 +1850,102 @@
       <c r="G20" s="2">
         <v>18</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
+      <c r="K20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20"/>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="2">
         <v>25</v>
       </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>8</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
         <v>11</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
+      <c r="K21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21"/>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="9">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="9">
-        <v>18</v>
-      </c>
-      <c r="H22" s="10">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22"/>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1911,26 +1967,24 @@
       <c r="G23" s="2">
         <v>25</v>
       </c>
-      <c r="H23" s="10">
-        <v>30</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
+      <c r="K23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23"/>
       <c r="M23" s="2">
         <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>25</v>
       </c>
@@ -1952,26 +2006,24 @@
       <c r="G24" s="2">
         <v>30</v>
       </c>
-      <c r="H24" s="10">
-        <v>4</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
+      <c r="K24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24"/>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>30</v>
       </c>
@@ -1993,26 +2045,24 @@
       <c r="G25" s="2">
         <v>11</v>
       </c>
-      <c r="H25" s="10">
-        <v>16</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
+      <c r="K25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25"/>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>11</v>
       </c>
@@ -2034,26 +2084,24 @@
       <c r="G26" s="2">
         <v>14</v>
       </c>
-      <c r="H26" s="10">
-        <v>18</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
+      <c r="K26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26"/>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>14</v>
       </c>
@@ -2075,109 +2123,102 @@
       <c r="G27" s="2">
         <v>17</v>
       </c>
-      <c r="H27" s="10">
+      <c r="K27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
         <v>23</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="K28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
         <v>17</v>
       </c>
-      <c r="B28" s="8">
-        <v>14</v>
-      </c>
-      <c r="C28" s="8">
-        <v>25</v>
-      </c>
-      <c r="D28" s="8">
-        <v>3</v>
-      </c>
-      <c r="E28" s="8">
-        <v>3</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8">
-        <v>23</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
         <v>15</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7">
-        <v>17</v>
-      </c>
-      <c r="C29" s="7">
-        <v>10</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7">
-        <v>4</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7">
-        <v>15</v>
-      </c>
-      <c r="H29" s="11">
-        <f>AVERAGE(H22:H28)</f>
-        <v>18</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
+      <c r="K29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29"/>
       <c r="M29" s="2">
         <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>15</v>
       </c>
@@ -2199,23 +2240,24 @@
       <c r="G30" s="2">
         <v>18</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
+      <c r="K30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30"/>
       <c r="M30" s="2">
         <v>0</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>18</v>
       </c>
@@ -2237,99 +2279,105 @@
       <c r="G31" s="2">
         <v>11</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="K31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="L31"/>
       <c r="M31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="O31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
         <v>11</v>
       </c>
-      <c r="B32" s="2">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="B32" s="8">
+        <v>18</v>
+      </c>
+      <c r="C32" s="8">
+        <v>18</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
         <v>7</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="8">
         <v>23</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="K32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="L32"/>
       <c r="M32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="O32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>23</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="7">
         <v>11</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>11</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
         <v>8</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7">
         <v>24</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>2</v>
+      <c r="H33" s="2">
+        <v>20</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="L33"/>
       <c r="M33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>24</v>
       </c>
@@ -2351,23 +2399,27 @@
       <c r="G34" s="2">
         <v>21</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>3</v>
+      <c r="H34" s="2">
+        <v>30</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="L34"/>
       <c r="M34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>21</v>
       </c>
@@ -2389,23 +2441,27 @@
       <c r="G35" s="2">
         <v>18</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>3</v>
+      <c r="H35" s="2">
+        <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="L35"/>
       <c r="M35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>18</v>
       </c>
@@ -2427,23 +2483,27 @@
       <c r="G36" s="2">
         <v>28</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>3</v>
+      <c r="H36" s="2">
+        <v>16</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="L36"/>
       <c r="M36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>28</v>
       </c>
@@ -2465,23 +2525,27 @@
       <c r="G37" s="2">
         <v>30</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>0</v>
+      <c r="H37" s="2">
+        <v>18</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L37"/>
       <c r="M37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>30</v>
       </c>
@@ -2503,23 +2567,27 @@
       <c r="G38" s="2">
         <v>15</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>0</v>
+      <c r="H38" s="2">
+        <v>23</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L38"/>
       <c r="M38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>15</v>
       </c>
@@ -2541,23 +2609,27 @@
       <c r="G39" s="2">
         <v>14</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>0</v>
+      <c r="H39" s="9">
+        <v>15</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L39"/>
       <c r="M39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>14</v>
       </c>
@@ -2576,26 +2648,31 @@
       <c r="F40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="10">
         <v>13</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>1</v>
+      <c r="H40" s="12">
+        <f>AVERAGE(H33:H39)</f>
+        <v>18</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="L40"/>
       <c r="M40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" ref="A42:C42" si="0">MIN(A2:A40)</f>
         <v>10</v>
@@ -2613,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" ref="A43:C43" si="1">MAX(A2:A40)</f>
         <v>30</v>
@@ -2631,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>0</v>
       </c>
@@ -2639,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>1</v>
       </c>
